--- a/weekly_online_paper_metrices/output/2023-04-02.xlsx
+++ b/weekly_online_paper_metrices/output/2023-04-02.xlsx
@@ -3879,13 +3879,13 @@
         </is>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>2623</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -4405,10 +4405,10 @@
         </is>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1736</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="G80">
-        <v>2698</v>
+        <v>2701</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -4995,7 +4995,7 @@
         </is>
       </c>
       <c r="G81">
-        <v>3174</v>
+        <v>3180</v>
       </c>
       <c r="H81">
         <v>5</v>
